--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_1_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,863 +417,886 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39583</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>3.145939949069287</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
       </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
       <c r="E2">
-        <v>0.9030420588129084</v>
+        <v>2.51031180018495</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>39583</v>
       </c>
       <c r="B3">
         <v>2008</v>
       </c>
+      <c r="C3">
+        <v>3.348624516477416</v>
+      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>0.6950734580409845</v>
+        <v>6.253707197847636</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39948</v>
+        <v>39765</v>
       </c>
       <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>1.769627576887389</v>
+      </c>
+      <c r="D4">
         <v>2009</v>
       </c>
-      <c r="C4">
-        <v>-1.795230130410519</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
-      </c>
       <c r="E4">
-        <v>-2.574759671493776</v>
+        <v>-1.56363396419209</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40130</v>
+        <v>39948</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>-1.61188520630966</v>
+        <v>-7.921319741078669</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>0.1340591961779047</v>
+        <v>-14.35806537048445</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40310</v>
+        <v>40130</v>
       </c>
       <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
+        <v>-4.774178217057779</v>
+      </c>
+      <c r="D6">
         <v>2010</v>
       </c>
-      <c r="C6">
-        <v>0.765668342090442</v>
-      </c>
-      <c r="D6">
-        <v>2011</v>
-      </c>
       <c r="E6">
-        <v>1.690613666316954</v>
+        <v>1.68591416918662</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40494</v>
+        <v>40310</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>1.128600547465064</v>
+        <v>0.2827737265587604</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>2.296986336913043</v>
+        <v>0.646969966709543</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40676</v>
+        <v>40494</v>
       </c>
       <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>1.97975191822708</v>
+      </c>
+      <c r="D8">
         <v>2011</v>
       </c>
-      <c r="C8">
-        <v>2.295210510275725</v>
-      </c>
-      <c r="D8">
-        <v>2012</v>
-      </c>
       <c r="E8">
-        <v>1.205410808099949</v>
+        <v>3.609042024648068</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40862</v>
+        <v>40676</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>2.397632938760519</v>
+        <v>4.453626355171969</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>1.914073781078174</v>
+        <v>6.136355062499943</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41044</v>
+        <v>40862</v>
       </c>
       <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>3.452886745653183</v>
+      </c>
+      <c r="D10">
         <v>2012</v>
       </c>
-      <c r="C10">
-        <v>0.5991205513815823</v>
-      </c>
-      <c r="D10">
-        <v>2013</v>
-      </c>
       <c r="E10">
-        <v>0.4006004000999708</v>
+        <v>2.11424984565185</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41228</v>
+        <v>41044</v>
       </c>
       <c r="B11">
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>0.5991205513815823</v>
+        <v>1.477633171193093</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>0.4006004000999708</v>
+        <v>2.015050062499957</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41409</v>
+        <v>41228</v>
       </c>
       <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>1.239479831392853</v>
+      </c>
+      <c r="D12">
         <v>2013</v>
       </c>
-      <c r="C12">
-        <v>0.1494732105682406</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
       <c r="E12">
-        <v>0.8024032015999882</v>
+        <v>0.9276342348636168</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41592</v>
+        <v>41409</v>
       </c>
       <c r="B13">
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>0.5555179840670776</v>
+        <v>-0.2005250704869344</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>1.876616141369425</v>
+        <v>0.2533625145866525</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41774</v>
+        <v>41592</v>
       </c>
       <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>0.2379616621361214</v>
+      </c>
+      <c r="D14">
         <v>2014</v>
       </c>
-      <c r="C14">
-        <v>1.87696028437685</v>
-      </c>
-      <c r="D14">
-        <v>2015</v>
-      </c>
       <c r="E14">
-        <v>2.015050062499957</v>
+        <v>1.3307042289459</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41957</v>
+        <v>41774</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>1.749602965204744</v>
+        <v>2.234527904461125</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>1.584331200193811</v>
+        <v>3.31205545981732</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>42137</v>
+        <v>41957</v>
       </c>
       <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16">
+        <v>1.51977456621637</v>
+      </c>
+      <c r="D16">
         <v>2015</v>
       </c>
-      <c r="C16">
-        <v>1.412370212124414</v>
-      </c>
-      <c r="D16">
-        <v>2016</v>
-      </c>
       <c r="E16">
-        <v>1.690613666316954</v>
+        <v>0.3626364251072101</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42321</v>
+        <v>42137</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>1.513781691628258</v>
+        <v>1.31172787261824</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>1.79135380536608</v>
+        <v>1.093673275363716</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42503</v>
+        <v>42321</v>
       </c>
       <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>1.470039379455756</v>
+      </c>
+      <c r="D18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>1.852737630868506</v>
-      </c>
-      <c r="D18">
-        <v>2017</v>
-      </c>
       <c r="E18">
-        <v>2.177559070630619</v>
+        <v>1.339087911421144</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42689</v>
+        <v>42503</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>1.72540577912379</v>
+        <v>1.784808447869168</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>1.746330563553644</v>
+        <v>2.687934870329323</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42867</v>
+        <v>42689</v>
       </c>
       <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20">
+        <v>1.638797242243251</v>
+      </c>
+      <c r="D20">
         <v>2017</v>
       </c>
-      <c r="C20">
-        <v>1.898706229393077</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
       <c r="E20">
-        <v>2.015050062499979</v>
+        <v>1.006353890555189</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>43053</v>
+        <v>42867</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>2.026192376700298</v>
+        <v>1.874682902292824</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>2.447018641032073</v>
+        <v>2.445693358388845</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43145</v>
+        <v>43053</v>
       </c>
       <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22">
+        <v>2.161565493242668</v>
+      </c>
+      <c r="D22">
         <v>2018</v>
       </c>
-      <c r="C22">
-        <v>2.447018641032073</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
       <c r="E22">
-        <v>2.421686529599998</v>
+        <v>3.257358596620663</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43235</v>
+        <v>43145</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>2.600636136940393</v>
+        <v>2.634902838428421</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>2.829537440099972</v>
+        <v>2.450082126686781</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43326</v>
+        <v>43235</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>2.292892837222515</v>
+        <v>2.159589514946769</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>1.305560583213294</v>
+        <v>1.194430031759008</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>43326</v>
       </c>
       <c r="B25">
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>2.344166347125687</v>
+        <v>2.33065612535226</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>1.964247616811443</v>
+        <v>1.797074113438568</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43510</v>
+        <v>43418</v>
       </c>
       <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>2.214251681313772</v>
+      </c>
+      <c r="D26">
         <v>2019</v>
       </c>
-      <c r="C26">
-        <v>1.203702179895605</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
       <c r="E26">
-        <v>0.8024032015999882</v>
+        <v>-0.3013396321239648</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43600</v>
+        <v>43510</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>1.052048406650874</v>
+        <v>0.2120367165967529</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>0.4006004000999486</v>
+        <v>0.06930121167902925</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43691</v>
+        <v>43600</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>0.9005461608770693</v>
+        <v>0.801449343663907</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>-0.3495502250373872</v>
+        <v>1.609625625600009</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43783</v>
+        <v>43691</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>0.9005461608770915</v>
+        <v>0.5878492443567307</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>-0.3495502250373428</v>
+        <v>-0.1841852167622338</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43875</v>
+        <v>43783</v>
       </c>
       <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>0.6066442151010376</v>
+      </c>
+      <c r="D30">
         <v>2020</v>
       </c>
-      <c r="C30">
-        <v>0.09990982891636691</v>
-      </c>
-      <c r="D30">
-        <v>2021</v>
-      </c>
       <c r="E30">
-        <v>0.3203842048411065</v>
+        <v>0.2691345740889695</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43966</v>
+        <v>43875</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>0.1299397948625325</v>
+        <v>0.2143710142614941</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>0.4006004000999486</v>
+        <v>0.112014348673295</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>44068</v>
+        <v>43966</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-4.43626840667447</v>
+        <v>-3.107661574595755</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>15.84335172989777</v>
+        <v>-8.513835774399992</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44159</v>
+        <v>44068</v>
       </c>
       <c r="B33">
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-4.43626840667447</v>
+        <v>-4.65090747647452</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-2.59027964978481</v>
+        <v>16.69343145309163</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44251</v>
+        <v>44159</v>
       </c>
       <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>-4.207901339433196</v>
+      </c>
+      <c r="D34">
         <v>2021</v>
       </c>
-      <c r="C34">
-        <v>-3.041839655828671</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
       <c r="E34">
-        <v>-2.8078608844747</v>
+        <v>-0.6332519459683494</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44341</v>
+        <v>44251</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-1.565160969988144</v>
+        <v>-0.3135161753049287</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>4.821235451055594</v>
+        <v>-2.807860884474733</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44432</v>
+        <v>44341</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-1.513408827666285</v>
+        <v>0.6949587062036411</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>5.532037961177516</v>
+        <v>4.530463903052695</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44525</v>
+        <v>44432</v>
       </c>
       <c r="B37">
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-1.513408827666285</v>
+        <v>0.7583924418458787</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>0.2472868522434668</v>
+        <v>5.353281688849409</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44617</v>
+        <v>44525</v>
       </c>
       <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>1.099928004397532</v>
+      </c>
+      <c r="D38">
         <v>2022</v>
       </c>
-      <c r="C38">
-        <v>1.770491201005231</v>
-      </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
       <c r="E38">
-        <v>1.874171968961869</v>
+        <v>0.4297312830033428</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44706</v>
+        <v>44617</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>1.705363361291323</v>
+        <v>2.258175284742725</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>1.550115130171692</v>
+        <v>1.874171968961869</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44798</v>
+        <v>44706</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>1.618732201786743</v>
+        <v>2.016988966764255</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>0.4359896505242045</v>
+        <v>1.492291178243965</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="B41">
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>1.618732201786743</v>
+        <v>2.236860175919531</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>-0.3897128071776224</v>
+        <v>0.3985453946335094</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44981</v>
+        <v>44890</v>
       </c>
       <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>2.310042359896225</v>
+      </c>
+      <c r="D42">
         <v>2023</v>
       </c>
-      <c r="C42">
-        <v>-0.2668834183736979</v>
-      </c>
-      <c r="D42">
-        <v>2024</v>
-      </c>
       <c r="E42">
-        <v>-0.828922626315487</v>
+        <v>-0.177017417229286</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45071</v>
+        <v>44981</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.02096303800552812</v>
+        <v>-0.1441795889054687</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>0.4009822256600959</v>
+        <v>-0.8289226263154981</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45163</v>
+        <v>45071</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.09609276733164585</v>
+        <v>-0.1519071329076249</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>-0.5754523023079883</v>
+        <v>0.3688835244738842</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45254</v>
+        <v>45163</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.09609276733164585</v>
+        <v>-0.09588622947416248</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-0.01692245312473473</v>
+        <v>-0.5974824858474559</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45345</v>
+        <v>45254</v>
       </c>
       <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>0.0464415346324687</v>
+      </c>
+      <c r="D46">
         <v>2024</v>
       </c>
-      <c r="C46">
-        <v>-0.2064815605495096</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
-      </c>
       <c r="E46">
-        <v>-0.3296319120892899</v>
+        <v>0.08221134935635366</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45436</v>
+        <v>45345</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>0.04881729603984919</v>
+        <v>-0.377538644385722</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.951279292417806</v>
+        <v>-0.3296319120892899</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45534</v>
+        <v>45436</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.02761034355766023</v>
+        <v>-0.01173401322185352</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>-0.04506100939898339</v>
+        <v>1.025808301409614</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45618</v>
+        <v>45534</v>
       </c>
       <c r="B49">
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.02761034355766023</v>
+        <v>-0.2385784141923808</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.6100224805228427</v>
+        <v>-0.1293951476914468</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45713</v>
+        <v>45618</v>
       </c>
       <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>-0.3101476031197148</v>
+      </c>
+      <c r="D50">
         <v>2025</v>
       </c>
-      <c r="C50">
-        <v>0.6480569585122442</v>
-      </c>
-      <c r="D50">
-        <v>2026</v>
-      </c>
       <c r="E50">
-        <v>0.9611939328737273</v>
+        <v>0.5295174046934692</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45800</v>
+        <v>45713</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.5029642233369325</v>
+        <v>0.1482615292711431</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.2368782828938043</v>
+        <v>0.9611939328737495</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45891</v>
+        <v>45800</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.5152269879013183</v>
+        <v>0.1328390304517146</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.3957977022389203</v>
+        <v>0.2797831653477356</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>-0.0960403240804597</v>
+      </c>
+      <c r="D53">
+        <v>2026</v>
+      </c>
+      <c r="E53">
+        <v>0.2498944033941575</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_1_9_full.xlsx
@@ -950,13 +950,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-4.65090747647452</v>
+        <v>-8.268943763593061</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>16.69343145309163</v>
+        <v>-31.94180729997804</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -973,7 +973,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>-0.6332519459683494</v>
+        <v>23.52713729381604</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +984,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-0.3135161753049287</v>
+        <v>1.269625353117165</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-2.807860884474733</v>
+        <v>1.369491273484913</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +1001,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>0.6949587062036411</v>
+        <v>-1.621578487659159</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>4.530463903052695</v>
+        <v>-7.034216978939012</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1018,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>0.7583924418458787</v>
+        <v>0.7868572467511603</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>5.353281688849409</v>
+        <v>5.737052250893804</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1041,7 +1041,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>0.4297312830033428</v>
+        <v>6.182044950645005</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,13 +1052,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>2.258175284742725</v>
+        <v>1.019629253669163</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>1.874171968961869</v>
+        <v>-1.381539669055609</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1069,13 +1069,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>2.016988966764255</v>
+        <v>1.906376895025019</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>1.492291178243965</v>
+        <v>0.9449384537271177</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1086,13 +1086,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>2.236860175919531</v>
+        <v>2.262414851847194</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>0.3985453946335094</v>
+        <v>0.7242061245421816</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1109,7 +1109,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>-0.177017417229286</v>
+        <v>1.559758801257694</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1120,13 +1120,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.1441795889054687</v>
+        <v>-0.4844381132618425</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>-0.8289226263154981</v>
+        <v>-1.729907735624048</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1137,13 +1137,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.1519071329076249</v>
+        <v>-0.4925007786849345</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>0.3688835244738842</v>
+        <v>-1.334423413378338</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1154,13 +1154,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.09588622947416248</v>
+        <v>-0.0462759835394122</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-0.5974824858474559</v>
+        <v>0.04644557489568157</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1177,7 +1177,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>0.08221134935635366</v>
+        <v>-0.3513551123189185</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1188,13 +1188,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-0.377538644385722</v>
+        <v>-0.6828258883444405</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>-0.3296319120892899</v>
+        <v>-1.143293480177676</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,13 +1205,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.01173401322185352</v>
+        <v>-0.04522577349396206</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>1.025808301409614</v>
+        <v>0.8571375889190769</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1222,13 +1222,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.2385784141923808</v>
+        <v>-0.2434639036892561</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>-0.1293951476914468</v>
+        <v>-0.1929563298375347</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1245,7 +1245,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>0.5295174046934692</v>
+        <v>0.2561130241983234</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.1482615292711431</v>
+        <v>-0.5104822884906213</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.9611939328737495</v>
+        <v>-0.7997432499605051</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1273,13 +1273,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.1328390304517146</v>
+        <v>0.4071596777631692</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.2797831653477356</v>
+        <v>1.656803071859136</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1290,13 +1290,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>-0.0960403240804597</v>
+        <v>-0.1890291825527246</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>0.2498944033941575</v>
+        <v>-0.9576579957582099</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_1_9_full.xlsx
@@ -422,14 +422,8 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>3.145939949069287</v>
-      </c>
       <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>2.51031180018495</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,14 +433,11 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>3.348624516477416</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>6.253707197847636</v>
+        <v>6.253707197847591</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -456,14 +447,11 @@
       <c r="B4">
         <v>2008</v>
       </c>
-      <c r="C4">
-        <v>1.769627576887389</v>
-      </c>
       <c r="D4">
         <v>2009</v>
       </c>
       <c r="E4">
-        <v>-1.56363396419209</v>
+        <v>-1.563633964192079</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,13 +462,13 @@
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>-7.921319741078669</v>
+        <v>-7.921319741078636</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>-14.35806537048445</v>
+        <v>-14.35806537048446</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +479,7 @@
         <v>2009</v>
       </c>
       <c r="C6">
-        <v>-4.774178217057779</v>
+        <v>-4.774178217057756</v>
       </c>
       <c r="D6">
         <v>2010</v>
@@ -548,7 +536,7 @@
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>6.136355062499943</v>
+        <v>6.136355062499965</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -565,7 +553,7 @@
         <v>2012</v>
       </c>
       <c r="E10">
-        <v>2.11424984565185</v>
+        <v>2.114249845651872</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -576,7 +564,7 @@
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>1.477633171193093</v>
+        <v>1.477633171193116</v>
       </c>
       <c r="D11">
         <v>2013</v>
@@ -593,7 +581,7 @@
         <v>2012</v>
       </c>
       <c r="C12">
-        <v>1.239479831392853</v>
+        <v>1.239479831392831</v>
       </c>
       <c r="D12">
         <v>2013</v>
@@ -610,7 +598,7 @@
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>-0.2005250704869344</v>
+        <v>-0.2005250704869121</v>
       </c>
       <c r="D13">
         <v>2014</v>
@@ -627,7 +615,7 @@
         <v>2013</v>
       </c>
       <c r="C14">
-        <v>0.2379616621361214</v>
+        <v>0.2379616621360992</v>
       </c>
       <c r="D14">
         <v>2014</v>
@@ -644,7 +632,7 @@
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>2.234527904461125</v>
+        <v>2.234527904461148</v>
       </c>
       <c r="D15">
         <v>2015</v>
@@ -678,13 +666,13 @@
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>1.31172787261824</v>
+        <v>1.311727872618218</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>1.093673275363716</v>
+        <v>1.093673275363694</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +683,13 @@
         <v>2015</v>
       </c>
       <c r="C18">
-        <v>1.470039379455756</v>
+        <v>1.470039379455734</v>
       </c>
       <c r="D18">
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>1.339087911421144</v>
+        <v>1.339087911421122</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,7 +700,7 @@
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>1.784808447869168</v>
+        <v>1.784808447869191</v>
       </c>
       <c r="D19">
         <v>2017</v>
@@ -729,13 +717,13 @@
         <v>2016</v>
       </c>
       <c r="C20">
-        <v>1.638797242243251</v>
+        <v>1.638797242243228</v>
       </c>
       <c r="D20">
         <v>2017</v>
       </c>
       <c r="E20">
-        <v>1.006353890555189</v>
+        <v>1.006353890555212</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -780,13 +768,13 @@
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>2.634902838428421</v>
+        <v>2.634902838428399</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>2.450082126686781</v>
+        <v>2.450082126686826</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -797,7 +785,7 @@
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>2.159589514946769</v>
+        <v>2.159589514946725</v>
       </c>
       <c r="D24">
         <v>2019</v>
@@ -814,7 +802,7 @@
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>2.33065612535226</v>
+        <v>2.330656125352215</v>
       </c>
       <c r="D25">
         <v>2019</v>
@@ -837,7 +825,7 @@
         <v>2019</v>
       </c>
       <c r="E26">
-        <v>-0.3013396321239648</v>
+        <v>-0.301339632123987</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -848,13 +836,13 @@
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>0.2120367165967529</v>
+        <v>0.2120367165967307</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>0.06930121167902925</v>
+        <v>0.06930121167905146</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -865,13 +853,13 @@
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>0.801449343663907</v>
+        <v>0.8014493436638848</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>1.609625625600009</v>
+        <v>1.609625625599986</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -882,13 +870,13 @@
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>0.5878492443567307</v>
+        <v>0.5878492443567529</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>-0.1841852167622338</v>
+        <v>-0.184185216762256</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -905,7 +893,7 @@
         <v>2020</v>
       </c>
       <c r="E30">
-        <v>0.2691345740889695</v>
+        <v>0.2691345740890139</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -922,7 +910,7 @@
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>0.112014348673295</v>
+        <v>0.1120143486733172</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -933,13 +921,13 @@
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-3.107661574595755</v>
+        <v>-3.107661574595766</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-8.513835774399992</v>
+        <v>-8.513835774400015</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,13 +938,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-8.268943763593061</v>
+        <v>-8.268943763593073</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-31.94180729997804</v>
+        <v>-31.94180729997805</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -973,7 +961,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>23.52713729381604</v>
+        <v>23.52713729381606</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,7 +972,7 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>1.269625353117165</v>
+        <v>1.269625353117143</v>
       </c>
       <c r="D35">
         <v>2022</v>
@@ -1001,7 +989,7 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-1.621578487659159</v>
+        <v>-1.621578487659103</v>
       </c>
       <c r="D36">
         <v>2022</v>
@@ -1018,13 +1006,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>0.7868572467511603</v>
+        <v>0.7868572467511825</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>5.737052250893804</v>
+        <v>5.737052250893782</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1035,13 +1023,13 @@
         <v>2021</v>
       </c>
       <c r="C38">
-        <v>1.099928004397532</v>
+        <v>1.099928004397577</v>
       </c>
       <c r="D38">
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>6.182044950645005</v>
+        <v>6.182044950645027</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1069,13 +1057,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>1.906376895025019</v>
+        <v>1.906376895025041</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>0.9449384537271177</v>
+        <v>0.9449384537270955</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1103,7 +1091,7 @@
         <v>2022</v>
       </c>
       <c r="C42">
-        <v>2.310042359896225</v>
+        <v>2.310042359896247</v>
       </c>
       <c r="D42">
         <v>2023</v>
@@ -1120,13 +1108,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.4844381132618425</v>
+        <v>-0.4844381132618314</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>-1.729907735624048</v>
+        <v>-1.729907735624059</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1137,7 +1125,7 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.4925007786849345</v>
+        <v>-0.4925007786849234</v>
       </c>
       <c r="D44">
         <v>2024</v>
@@ -1154,13 +1142,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.0462759835394122</v>
+        <v>-0.0462759835394233</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.04644557489568157</v>
+        <v>0.04644557489565937</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1177,7 +1165,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>-0.3513551123189185</v>
+        <v>-0.3513551123189074</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1188,13 +1176,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-0.6828258883444405</v>
+        <v>-0.6828258883444516</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>-1.143293480177676</v>
+        <v>-1.143293480177665</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1222,13 +1210,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.2434639036892561</v>
+        <v>-0.243463903689245</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>-0.1929563298375347</v>
+        <v>-0.1929563298375014</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1239,13 +1227,13 @@
         <v>2024</v>
       </c>
       <c r="C50">
-        <v>-0.3101476031197148</v>
+        <v>-0.3101476031197037</v>
       </c>
       <c r="D50">
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>0.2561130241983234</v>
+        <v>0.2561130241983456</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1256,13 +1244,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>-0.5104822884906213</v>
+        <v>-0.5104822884906102</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-0.7997432499605051</v>
+        <v>-0.799743249960494</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1296,7 +1284,7 @@
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>-0.9576579957582099</v>
+        <v>-0.9576579957581766</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_1_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1287,6 +1287,23 @@
         <v>-0.9576579957581766</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>-0.08656168856399082</v>
+      </c>
+      <c r="D54">
+        <v>2026</v>
+      </c>
+      <c r="E54">
+        <v>-0.02867614772544824</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
